--- a/public/Data/Faculty-List-3 years.xlsx
+++ b/public/Data/Faculty-List-3 years.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suhail\2024-2025\College - Website (CSE Related)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57910CD9-F7F1-4ECE-88B2-180E41EA9252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604A601-4ACA-4459-822F-9A9FF5E2CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A144349C-7E0F-49A1-8C4A-04D15F032742}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="145">
   <si>
     <t>S. No.</t>
   </si>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,16 +624,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,13 +655,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,14 +688,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,1539 +1043,1307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C7CDF-D12C-4E08-B277-32F4EAB0BA26}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="21" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="57" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="5">
-        <v>37149</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
-        <v>39044</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
-        <v>39995</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
-        <v>39193</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>38504</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <v>37834</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
-        <v>38217</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>42936</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6">
-        <v>42982</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6">
-        <v>43332</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="6">
-        <v>42713</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="6">
-        <v>39044</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6">
-        <v>42735</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
-        <v>39967</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6">
-        <v>37167</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6">
-        <v>39087</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="6">
-        <v>39191</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="6">
-        <v>39995</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="6">
-        <v>40673</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E20" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="6">
-        <v>42735</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6">
-        <v>44256</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5">
-        <v>44279</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="6">
-        <v>44295</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E24" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="6">
-        <v>44522</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="6">
-        <v>44687</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>134</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6">
-        <v>41435</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="6">
-        <v>39965</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E28" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="6">
-        <v>39965</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E29" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="6">
-        <v>39966</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E30" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="6">
-        <v>41222</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E31" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="6">
-        <v>41792</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E32" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="6">
-        <v>41792</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E33" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="6">
-        <v>41810</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E34" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="6">
-        <v>41856</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E35" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="6">
-        <v>42429</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E36" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="6">
-        <v>42222</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E37" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="6">
-        <v>42459</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E38" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="6">
-        <v>42522</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E39" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="C40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="6">
-        <v>44540</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E40" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="24" t="s">
+      <c r="C41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="6">
-        <v>44552</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="5">
-        <v>43482</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="D42" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="6">
-        <v>44568</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E43" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="6">
-        <v>44593</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E44" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="24" t="s">
+      <c r="C45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="6">
-        <v>44799</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E45" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="5">
-        <v>44802</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="6">
-        <v>44803</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="6">
-        <v>44803</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="5">
-        <v>44995</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="6">
-        <v>42328</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="6">
-        <v>43647</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>52</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="6">
-        <v>43890</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="6">
-        <v>43896</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="6">
-        <v>44527</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="6">
-        <v>44569</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="6">
-        <v>44743</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="6">
-        <v>44673</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="D57" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="6">
-        <v>43069</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E59" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="6">
-        <v>44524</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="6">
-        <v>44473</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="C61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="6">
-        <v>42151</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="6">
-        <v>44578</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="5">
-        <v>44811</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="C65" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="5">
-        <v>44536</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="5">
-        <v>44569</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="5">
-        <v>44540</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="5">
-        <v>42219</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="5">
-        <v>42461</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="5">
-        <v>42125</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="5">
-        <v>42884</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="C72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="5">
-        <v>44613</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="C73" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="20" t="s">
+      <c r="C74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="5">
-        <v>42363</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+      <c r="E74" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="6">
-        <v>44627</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E77" s="6">
-        <v>37149</v>
-      </c>
-      <c r="F77" s="20" t="s">
+      <c r="E77" s="16" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A75:F75"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2596,30 +2360,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="16" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2627,13 +2391,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -2647,13 +2411,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5">
@@ -2667,13 +2431,13 @@
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
@@ -2687,13 +2451,13 @@
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -2707,13 +2471,13 @@
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
@@ -2727,13 +2491,13 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
@@ -2747,13 +2511,13 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5">
@@ -2767,13 +2531,13 @@
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
@@ -2787,13 +2551,13 @@
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -2807,13 +2571,13 @@
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -2827,13 +2591,13 @@
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
@@ -2847,13 +2611,13 @@
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5">
@@ -2867,13 +2631,13 @@
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5">
@@ -2887,13 +2651,13 @@
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="5">
@@ -2907,13 +2671,13 @@
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="5">
@@ -2927,13 +2691,13 @@
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="5">
@@ -2947,13 +2711,13 @@
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="5">
@@ -2967,13 +2731,13 @@
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="5">
@@ -2987,13 +2751,13 @@
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="5">
@@ -3007,13 +2771,13 @@
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="5">
@@ -3027,13 +2791,13 @@
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="5">
@@ -3047,13 +2811,13 @@
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="5">
@@ -3067,13 +2831,13 @@
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5">
@@ -3087,13 +2851,13 @@
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="5">
@@ -3107,13 +2871,13 @@
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="5">
@@ -3127,13 +2891,13 @@
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="5">
@@ -3147,13 +2911,13 @@
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="5">
@@ -3167,13 +2931,13 @@
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="5">
@@ -3187,13 +2951,13 @@
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="5">
@@ -3207,13 +2971,13 @@
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="5">
@@ -3227,11 +2991,11 @@
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="5">
@@ -3245,13 +3009,13 @@
       <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="5">
@@ -3265,13 +3029,13 @@
       <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="5">
@@ -3285,13 +3049,13 @@
       <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="5">
@@ -3305,13 +3069,13 @@
       <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="5">
@@ -3325,13 +3089,13 @@
       <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5">
@@ -3345,13 +3109,13 @@
       <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="5">
@@ -3365,13 +3129,13 @@
       <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="5">
@@ -3385,13 +3149,13 @@
       <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="5">
@@ -3405,13 +3169,13 @@
       <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="5">
@@ -3425,13 +3189,13 @@
       <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="5">
@@ -3445,13 +3209,13 @@
       <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="5">
@@ -3465,13 +3229,13 @@
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="5">
@@ -3485,13 +3249,13 @@
       <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E45" s="5">
@@ -3505,13 +3269,13 @@
       <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="5">
@@ -3525,13 +3289,13 @@
       <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="5">
@@ -3545,13 +3309,13 @@
       <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="5">
@@ -3565,13 +3329,13 @@
       <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E49" s="5">
@@ -3585,13 +3349,13 @@
       <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="5">
@@ -3605,13 +3369,13 @@
       <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="5">
@@ -3625,13 +3389,13 @@
       <c r="A52" s="2">
         <v>52</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="5">
@@ -3645,13 +3409,13 @@
       <c r="A53" s="2">
         <v>53</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="5">
@@ -3665,13 +3429,13 @@
       <c r="A54" s="2">
         <v>54</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="5">
@@ -3685,13 +3449,13 @@
       <c r="A55" s="2">
         <v>56</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="5">
@@ -3705,13 +3469,13 @@
       <c r="A56" s="2">
         <v>57</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="5">
@@ -3725,13 +3489,13 @@
       <c r="A57" s="2">
         <v>58</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="5">
@@ -3745,13 +3509,13 @@
       <c r="A58" s="2">
         <v>59</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="5">
@@ -3765,13 +3529,13 @@
       <c r="A59" s="2">
         <v>60</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="5">
@@ -3785,13 +3549,13 @@
       <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="5">
@@ -3805,13 +3569,13 @@
       <c r="A61" s="2">
         <v>61</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="5">
@@ -3825,13 +3589,13 @@
       <c r="A62" s="2">
         <v>62</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="5">
@@ -3845,13 +3609,13 @@
       <c r="A63" s="2">
         <v>63</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E63" s="5">
@@ -3865,13 +3629,13 @@
       <c r="A64" s="2">
         <v>64</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E64" s="5">
@@ -3885,13 +3649,13 @@
       <c r="A65" s="2">
         <v>65</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E65" s="5">
@@ -3902,26 +3666,26 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="5">
@@ -3935,13 +3699,13 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="5">
@@ -3955,13 +3719,13 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="5">
@@ -3972,26 +3736,26 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
     </row>
     <row r="71" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E71" s="5">
@@ -4005,13 +3769,13 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E72" s="5">
@@ -4025,13 +3789,13 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="5">
@@ -4045,13 +3809,13 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E74" s="5">
@@ -4065,13 +3829,13 @@
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E75" s="5">
@@ -4085,13 +3849,13 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E76" s="5">
@@ -4105,13 +3869,13 @@
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="5">
@@ -4125,13 +3889,13 @@
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="5">
@@ -4145,13 +3909,13 @@
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E79" s="5">
@@ -4165,13 +3929,13 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E80" s="5">
@@ -4185,13 +3949,13 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="23" t="s">
         <v>125</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="5">
@@ -4202,26 +3966,26 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="24" t="s">
         <v>114</v>
       </c>
       <c r="E83" s="5">
@@ -4231,17 +3995,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="11" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E84" s="5">
@@ -4273,30 +4037,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4304,13 +4068,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5">
@@ -4324,13 +4088,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5">
@@ -4344,13 +4108,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5">
@@ -4364,13 +4128,13 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5">
@@ -4384,13 +4148,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5">
@@ -4404,13 +4168,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5">
@@ -4424,13 +4188,13 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5">
@@ -4444,13 +4208,13 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5">
@@ -4464,13 +4228,13 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5">
@@ -4484,13 +4248,13 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5">
@@ -4504,13 +4268,13 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="5">
@@ -4524,13 +4288,13 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5">
@@ -4544,13 +4308,13 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="5">
@@ -4564,13 +4328,13 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5">
@@ -4584,13 +4348,13 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="5">
@@ -4604,13 +4368,13 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="5">
@@ -4624,13 +4388,13 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="5">
@@ -4644,13 +4408,13 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="5">
@@ -4664,13 +4428,13 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="5">
@@ -4684,13 +4448,13 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="5">
@@ -4704,13 +4468,13 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="5">
@@ -4724,13 +4488,13 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="5">
@@ -4744,13 +4508,13 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="5">
@@ -4764,13 +4528,13 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="5">
@@ -4784,13 +4548,13 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="5">
@@ -4804,13 +4568,13 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="5">
@@ -4824,13 +4588,13 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="5">
@@ -4844,11 +4608,11 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="5">
@@ -4862,13 +4626,13 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="5">
@@ -4882,13 +4646,13 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="5">
@@ -4902,13 +4666,13 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="5">
@@ -4922,13 +4686,13 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="5">
@@ -4942,13 +4706,13 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="5">
@@ -4962,13 +4726,13 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="5">
@@ -4982,13 +4746,13 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="5">
@@ -5002,13 +4766,13 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5">
@@ -5022,13 +4786,13 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="5">
@@ -5042,13 +4806,13 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="5">
@@ -5062,13 +4826,13 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="5">
@@ -5082,13 +4846,13 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="5">
@@ -5102,13 +4866,13 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E42" s="5">
@@ -5122,13 +4886,13 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="5">
@@ -5142,13 +4906,13 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="5">
@@ -5162,13 +4926,13 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="5">
@@ -5182,13 +4946,13 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="5">
@@ -5202,13 +4966,13 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E47" s="5">
@@ -5222,13 +4986,13 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="5">
@@ -5242,13 +5006,13 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E49" s="5">
@@ -5262,13 +5026,13 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="5">
@@ -5282,13 +5046,13 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="5">
@@ -5302,13 +5066,13 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="5">
@@ -5322,13 +5086,13 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="5">
@@ -5342,13 +5106,13 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="5">
@@ -5362,13 +5126,13 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="20" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="5">
@@ -5382,13 +5146,13 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="5">
@@ -5402,13 +5166,13 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="5">
@@ -5422,13 +5186,13 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="5">
@@ -5442,13 +5206,13 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="5">
@@ -5462,13 +5226,13 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="5">
@@ -5482,13 +5246,13 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="5">
@@ -5502,13 +5266,13 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="5">
@@ -5522,13 +5286,13 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="20" t="s">
         <v>84</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E63" s="5">
@@ -5542,13 +5306,13 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E64" s="5">
@@ -5562,13 +5326,13 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E65" s="5">
@@ -5582,13 +5346,13 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E66" s="5">
@@ -5602,13 +5366,13 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="5">
@@ -5622,13 +5386,13 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="5">
@@ -5642,13 +5406,13 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="5">
@@ -5662,13 +5426,13 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="5">
@@ -5679,26 +5443,26 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="5">
@@ -5712,13 +5476,13 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E73" s="5">
@@ -5732,13 +5496,13 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E74" s="5">
@@ -5749,26 +5513,26 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="5">
@@ -5782,13 +5546,13 @@
       <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="20" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="5">
@@ -5802,13 +5566,13 @@
       <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="5">
@@ -5819,26 +5583,26 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>76</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="5">
@@ -5852,13 +5616,13 @@
       <c r="A81" s="2">
         <v>77</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="5">
@@ -5872,13 +5636,13 @@
       <c r="A82" s="2">
         <v>78</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E82" s="5">
@@ -5892,13 +5656,13 @@
       <c r="A83" s="2">
         <v>79</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E83" s="5">
@@ -5912,13 +5676,13 @@
       <c r="A84" s="2">
         <v>80</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="5">
@@ -5932,13 +5696,13 @@
       <c r="A85" s="2">
         <v>81</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="5">
@@ -5952,13 +5716,13 @@
       <c r="A86" s="2">
         <v>82</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="5">
@@ -5972,13 +5736,13 @@
       <c r="A87" s="2">
         <v>83</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="5">
@@ -5992,13 +5756,13 @@
       <c r="A88" s="2">
         <v>84</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E88" s="5">
@@ -6012,13 +5776,13 @@
       <c r="A89" s="2">
         <v>85</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E89" s="5">
@@ -6032,13 +5796,13 @@
       <c r="A90" s="2">
         <v>86</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E90" s="5">
@@ -6049,26 +5813,26 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E92" s="5">
@@ -6082,19 +5846,19 @@
       <c r="A93" s="2">
         <v>2</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E93" s="5">
         <v>37149</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/Data/Faculty-List-3 years.xlsx
+++ b/public/Data/Faculty-List-3 years.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaushik\OneDrive\Desktop\CVR final\CVR-CSE\public\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3604A601-4ACA-4459-822F-9A9FF5E2CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB8927-7EA2-47CA-9343-B6E013DA2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A144349C-7E0F-49A1-8C4A-04D15F032742}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A144349C-7E0F-49A1-8C4A-04D15F032742}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-23" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="145">
   <si>
     <t>S. No.</t>
   </si>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -708,6 +708,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56C7CDF-D12C-4E08-B277-32F4EAB0BA26}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -2351,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B70901-005B-46AC-9285-1B8BCA73EB6E}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F84" sqref="A1:F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,11 +2369,10 @@
     <col min="2" max="2" width="20.5546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="16" style="13" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2381,13 +2386,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2400,14 +2402,11 @@
       <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
-        <v>39044</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2420,14 +2419,11 @@
       <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
-        <v>39995</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2440,14 +2436,11 @@
       <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
-        <v>39193</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2460,14 +2453,11 @@
       <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5">
-        <v>37834</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -2480,14 +2470,11 @@
       <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>38217</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -2500,14 +2487,11 @@
       <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <v>37167</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2520,14 +2504,11 @@
       <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
-        <v>42713</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2540,14 +2521,11 @@
       <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
-        <v>42936</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2560,14 +2538,11 @@
       <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5">
-        <v>42982</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2580,14 +2555,11 @@
       <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
-        <v>43332</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2600,14 +2572,11 @@
       <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
-        <v>39044</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2620,14 +2589,11 @@
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5">
-        <v>42735</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2640,14 +2606,11 @@
       <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5">
-        <v>39967</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2660,14 +2623,11 @@
       <c r="D15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="5">
-        <v>44889</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -2680,14 +2640,11 @@
       <c r="D16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="5">
-        <v>42735</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -2700,14 +2657,11 @@
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5">
-        <v>39087</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -2720,14 +2674,11 @@
       <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5">
-        <v>39191</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -2740,14 +2691,11 @@
       <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="5">
-        <v>39995</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -2760,14 +2708,11 @@
       <c r="D20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="5">
-        <v>40673</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -2780,14 +2725,11 @@
       <c r="D21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5">
-        <v>44256</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -2800,14 +2742,11 @@
       <c r="D22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="5">
-        <v>44295</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -2820,14 +2759,11 @@
       <c r="D23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="5">
-        <v>44522</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -2840,14 +2776,11 @@
       <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5">
-        <v>44687</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -2860,14 +2793,11 @@
       <c r="D25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5">
-        <v>44910</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -2880,14 +2810,11 @@
       <c r="D26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5">
-        <v>44928</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -2900,14 +2827,11 @@
       <c r="D27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="5">
-        <v>44928</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -2920,14 +2844,11 @@
       <c r="D28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="5">
-        <v>41435</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -2940,14 +2861,11 @@
       <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="5">
-        <v>39965</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2960,14 +2878,11 @@
       <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="5">
-        <v>39965</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -2980,14 +2895,11 @@
       <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="5">
-        <v>39966</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -2998,14 +2910,11 @@
       <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="5">
-        <v>45111</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3018,14 +2927,11 @@
       <c r="D33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="5">
-        <v>41222</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3038,14 +2944,11 @@
       <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="5">
-        <v>41792</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3058,14 +2961,11 @@
       <c r="D35" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="5">
-        <v>41792</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3078,14 +2978,11 @@
       <c r="D36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="5">
-        <v>41810</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3098,14 +2995,11 @@
       <c r="D37" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="5">
-        <v>41856</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3118,14 +3012,11 @@
       <c r="D38" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="5">
-        <v>42429</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3138,14 +3029,11 @@
       <c r="D39" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="5">
-        <v>42222</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3158,14 +3046,11 @@
       <c r="D40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="5">
-        <v>42459</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3178,14 +3063,11 @@
       <c r="D41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="5">
-        <v>42522</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -3198,14 +3080,11 @@
       <c r="D42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="5">
-        <v>44540</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -3218,14 +3097,11 @@
       <c r="D43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="5">
-        <v>44552</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -3238,14 +3114,11 @@
       <c r="D44" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="5">
-        <v>44568</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -3258,14 +3131,11 @@
       <c r="D45" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="5">
-        <v>44593</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -3278,14 +3148,11 @@
       <c r="D46" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="5">
-        <v>44799</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -3298,14 +3165,11 @@
       <c r="D47" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="5">
-        <v>44803</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -3318,14 +3182,11 @@
       <c r="D48" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="5">
-        <v>44803</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -3338,14 +3199,11 @@
       <c r="D49" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="5">
-        <v>44851</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -3358,14 +3216,11 @@
       <c r="D50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="5">
-        <v>44880</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -3378,14 +3233,11 @@
       <c r="D51" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="5">
-        <v>44896</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -3398,14 +3250,11 @@
       <c r="D52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="5">
-        <v>42328</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -3418,14 +3267,11 @@
       <c r="D53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="5">
-        <v>43647</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -3438,14 +3284,11 @@
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="5">
-        <v>43890</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>56</v>
       </c>
@@ -3458,14 +3301,11 @@
       <c r="D55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="5">
-        <v>43896</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>57</v>
       </c>
@@ -3478,14 +3318,11 @@
       <c r="D56" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="5">
-        <v>44527</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>58</v>
       </c>
@@ -3498,14 +3335,11 @@
       <c r="D57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="5">
-        <v>44569</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>59</v>
       </c>
@@ -3518,14 +3352,11 @@
       <c r="D58" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="5">
-        <v>44743</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -3538,14 +3369,11 @@
       <c r="D59" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="5">
-        <v>44673</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -3558,14 +3386,11 @@
       <c r="D60" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="5">
-        <v>44921</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -3578,14 +3403,11 @@
       <c r="D61" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="5">
-        <v>44863</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -3598,14 +3420,11 @@
       <c r="D62" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="5">
-        <v>44928</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -3618,14 +3437,11 @@
       <c r="D63" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="5">
-        <v>44928</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -3638,14 +3454,11 @@
       <c r="D64" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="5">
-        <v>44931</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -3658,14 +3471,11 @@
       <c r="D65" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="5">
-        <v>45027</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>123</v>
       </c>
@@ -3673,9 +3483,8 @@
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-    </row>
-    <row r="67" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3688,14 +3497,11 @@
       <c r="D67" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="5">
-        <v>43069</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3708,14 +3514,11 @@
       <c r="D68" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="5">
-        <v>44524</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3728,14 +3531,11 @@
       <c r="D69" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="5">
-        <v>44473</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>124</v>
       </c>
@@ -3743,9 +3543,8 @@
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-    </row>
-    <row r="71" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3758,14 +3557,11 @@
       <c r="D71" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="5">
-        <v>42151</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3778,14 +3574,11 @@
       <c r="D72" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="5">
-        <v>44578</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3798,14 +3591,11 @@
       <c r="D73" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="5">
-        <v>44825</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -3818,14 +3608,11 @@
       <c r="D74" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="5">
-        <v>44771</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -3838,14 +3625,11 @@
       <c r="D75" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="5">
-        <v>44854</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -3858,14 +3642,11 @@
       <c r="D76" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="5">
-        <v>44811</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -3878,14 +3659,11 @@
       <c r="D77" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="5">
-        <v>44931</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -3898,14 +3676,11 @@
       <c r="D78" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E78" s="5">
-        <v>44613</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -3918,14 +3693,11 @@
       <c r="D79" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="5">
-        <v>44818</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -3938,14 +3710,11 @@
       <c r="D80" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="5">
-        <v>42363</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -3958,14 +3727,11 @@
       <c r="D81" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="5">
-        <v>44536</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>126</v>
       </c>
@@ -3973,9 +3739,8 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-    </row>
-    <row r="83" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -3988,14 +3753,11 @@
       <c r="D83" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="5">
-        <v>44627</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -4008,19 +3770,11 @@
       <c r="D84" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E84" s="5">
-        <v>37149</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A82:F82"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5443,14 +5197,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -5513,14 +5267,14 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -5583,14 +5337,14 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -5813,14 +5567,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
     </row>
     <row r="92" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
